--- a/Revision Tracker.xlsx
+++ b/Revision Tracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Robotics\2015BillOfMaterials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>Date/Time</t>
   </si>
@@ -231,6 +226,18 @@
   </si>
   <si>
     <t>Scissors Lift</t>
+  </si>
+  <si>
+    <t>Monday 2/16/15 Build Tweeks</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>2/16 4:30p</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -624,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,11 +1227,21 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
